--- a/src/main/resources/devices/biy/Referees.xlsx
+++ b/src/main/resources/devices/biy/Referees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\biy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6FD53B-9385-4DA0-8266-44E86044ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35758FF1-85DA-4551-9639-70EEF9068B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>pin</t>
   </si>
@@ -145,21 +145,6 @@
   </si>
   <si>
     <t>Down sound A1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Ignore A2 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A3 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A4 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A5 Inputs</t>
   </si>
   <si>
     <t>C6,250,PAUSE,125,C6,250</t>
@@ -178,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +178,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,11 +213,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -262,8 +265,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
@@ -596,32 +615,32 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -713,7 +732,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
@@ -733,7 +752,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -873,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="7"/>
@@ -896,7 +915,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
@@ -1034,7 +1053,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -1054,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1132,50 +1151,6 @@
       <c r="G27" s="11"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/devices/biy/Referees.xlsx
+++ b/src/main/resources/devices/biy/Referees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\biy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35758FF1-85DA-4551-9639-70EEF9068B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92240AFC-E0EB-4DB1-AF74-2DD548F6A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>pin</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>topic</t>
+  </si>
+  <si>
+    <t>ignore A2</t>
+  </si>
+  <si>
+    <t>ignore A3</t>
+  </si>
+  <si>
+    <t>ignore A4</t>
+  </si>
+  <si>
+    <t>ignore A5</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -278,6 +290,23 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,16 +624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
@@ -619,7 +648,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -648,7 +677,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="23">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -668,7 +697,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="23">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -688,7 +717,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="23">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -702,7 +731,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="23">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -719,7 +748,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="23">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -739,7 +768,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="23">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -759,7 +788,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="23">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -776,7 +805,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="23">
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -793,7 +822,7 @@
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="24">
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -814,9 +843,9 @@
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -839,7 +868,7 @@
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="24">
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -858,7 +887,7 @@
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="24">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -879,7 +908,7 @@
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="24">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -902,7 +931,7 @@
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="24">
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -925,7 +954,7 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="24">
         <v>7</v>
       </c>
       <c r="C16" s="7"/>
@@ -948,7 +977,7 @@
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="24">
         <v>6</v>
       </c>
       <c r="C17" s="7"/>
@@ -969,7 +998,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="23">
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -987,9 +1016,9 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1009,7 +1038,7 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="23">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1023,7 +1052,7 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="23">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1040,7 +1069,7 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="23">
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1060,7 +1089,7 @@
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="23">
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1080,7 +1109,7 @@
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="23">
         <v>3</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1097,7 +1126,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="23">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1114,7 +1143,7 @@
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="23">
         <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1135,7 +1164,7 @@
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="23">
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1151,6 +1180,66 @@
       <c r="G27" s="11"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" customFormat="1">
+      <c r="A28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="19">
+        <v>16</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19">
+        <v>17</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" customFormat="1">
+      <c r="A30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="19">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1">
+      <c r="A31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="19">
+        <v>19</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
